--- a/brack.xlsx
+++ b/brack.xlsx
@@ -90,9 +90,6 @@
     <t xml:space="preserve">3rd</t>
   </si>
   <si>
-    <t xml:space="preserve">TBD</t>
-  </si>
-  <si>
     <t xml:space="preserve">4th</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBD</t>
   </si>
   <si>
     <t xml:space="preserve">Brazil</t>
@@ -165,13 +165,13 @@
     <t xml:space="preserve">Columbia</t>
   </si>
   <si>
+    <t xml:space="preserve">England</t>
+  </si>
+  <si>
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
     <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England</t>
   </si>
   <si>
     <t xml:space="preserve">group F</t>
@@ -442,14 +442,14 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.81376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.92712550607287"/>
@@ -587,7 +587,7 @@
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="H6" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -602,19 +602,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="0"/>
@@ -624,12 +624,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5"/>
       <c r="H8" s="0"/>
@@ -647,14 +647,14 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="K9" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>12</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -681,7 +681,7 @@
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="K10" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L10" s="5"/>
       <c r="N10" s="0"/>
@@ -713,7 +713,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
@@ -721,7 +721,7 @@
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="H12" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>12</v>
@@ -744,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I13" s="5"/>
       <c r="K13" s="0"/>
@@ -754,13 +754,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>30</v>
@@ -771,7 +771,7 @@
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="N14" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>31</v>
@@ -794,10 +794,10 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="N15" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -826,7 +826,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>32</v>
@@ -849,7 +849,7 @@
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="H18" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>12</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I19" s="5"/>
       <c r="K19" s="0"/>
@@ -888,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>33</v>
@@ -914,7 +914,7 @@
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="K21" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>12</v>
@@ -925,7 +925,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>37</v>
@@ -939,7 +939,7 @@
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="K22" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L22" s="5"/>
     </row>
@@ -969,7 +969,7 @@
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
       <c r="H24" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>12</v>
@@ -992,34 +992,34 @@
         <v>12</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,7 +1067,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>47</v>
@@ -1099,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,10 +1115,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>50</v>
@@ -1169,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>53</v>
@@ -1264,9 +1264,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1412,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -1445,7 +1445,7 @@
         <v>Nigeria</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -1462,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1532,7 +1532,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -1574,13 +1574,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
@@ -1620,7 +1620,7 @@
         <v>Argentina</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -1658,7 +1658,7 @@
         <v>Russia</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -1683,13 +1683,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -1701,7 +1701,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -1721,7 +1721,7 @@
         <v>Denmark</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -1753,7 +1753,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>36</v>
@@ -1770,7 +1770,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,7 +1904,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -1925,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,10 +1952,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>51</v>
@@ -2006,7 +2006,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>54</v>
@@ -2258,7 +2258,7 @@
         <v>Spain</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
@@ -2296,7 +2296,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2313,7 +2313,7 @@
         <v>France</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -2331,7 +2331,7 @@
         <v>Argentina</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="str">
         <f aca="false">C24</f>
@@ -2422,7 +2422,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
@@ -2546,7 +2546,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>33</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -2616,7 +2616,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="6" t="str">
         <f aca="false">C15</f>
@@ -2657,7 +2657,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>36</v>
@@ -2723,7 +2723,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,7 +2814,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -2846,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,10 +2862,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>50</v>
@@ -2916,7 +2916,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>53</v>
@@ -3209,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -3226,7 +3226,7 @@
         <v>France</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -3244,7 +3244,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -3261,7 +3261,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -3301,7 +3301,7 @@
         <v>Belgium</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
@@ -3335,7 +3335,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -3381,13 +3381,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
@@ -3459,7 +3459,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -3469,7 +3469,7 @@
         <v>Russia</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -3496,13 +3496,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -3516,7 +3516,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -3536,7 +3536,7 @@
         <v>Peru</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -3570,7 +3570,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -3655,13 +3655,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">C35</f>
@@ -3673,13 +3673,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,7 +3727,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -3759,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,10 +3775,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>51</v>
@@ -3829,7 +3829,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>30</v>
@@ -4122,7 +4122,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -4139,7 +4139,7 @@
         <v>France</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -4157,7 +4157,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -4174,7 +4174,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -4248,7 +4248,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -4294,13 +4294,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
@@ -4372,7 +4372,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -4382,7 +4382,7 @@
         <v>Russia</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -4409,13 +4409,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -4429,7 +4429,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -4449,7 +4449,7 @@
         <v>Peru</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -4483,7 +4483,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -4502,7 +4502,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,13 +4568,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">C35</f>
@@ -4586,13 +4586,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +4640,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -4661,7 +4661,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,10 +4688,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>50</v>
@@ -4742,7 +4742,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>30</v>
@@ -5035,7 +5035,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>16</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -5070,7 +5070,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -5087,7 +5087,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -5161,7 +5161,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -5207,20 +5207,20 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
         <v>Columbia</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -5285,7 +5285,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>34</v>
@@ -5295,7 +5295,7 @@
         <v>Russia</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -5322,13 +5322,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -5342,7 +5342,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -5362,7 +5362,7 @@
         <v>Australia</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -5396,7 +5396,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -5462,7 +5462,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -5499,13 +5499,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5553,7 +5553,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>39</v>
@@ -5574,7 +5574,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,10 +5601,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>50</v>
@@ -5655,7 +5655,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>53</v>
@@ -5948,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -5983,7 +5983,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -6000,7 +6000,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -6074,7 +6074,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -6120,20 +6120,20 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
         <v>Poland</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -6168,7 +6168,7 @@
         <v>Argentina</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,7 +6198,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -6208,7 +6208,7 @@
         <v>Russia</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -6235,13 +6235,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -6255,7 +6255,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -6275,7 +6275,7 @@
         <v>Peru</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -6309,7 +6309,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -6328,7 +6328,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6394,13 +6394,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">C35</f>
@@ -6412,13 +6412,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,7 +6466,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -6487,7 +6487,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,10 +6514,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>50</v>
@@ -6568,7 +6568,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>30</v>
@@ -6861,7 +6861,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -6896,7 +6896,7 @@
         <v>Nigeria</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -6913,7 +6913,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -6987,7 +6987,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -7033,13 +7033,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
@@ -7081,7 +7081,7 @@
         <v>Spain</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,7 +7111,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>33</v>
@@ -7121,7 +7121,7 @@
         <v>Uruguay</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -7148,13 +7148,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -7168,7 +7168,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -7188,7 +7188,7 @@
         <v>Peru</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -7222,7 +7222,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -7241,7 +7241,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7288,7 +7288,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -7307,28 +7307,28 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">C35</f>
         <v>England</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
@@ -7379,7 +7379,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -7411,7 +7411,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7427,10 +7427,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>50</v>
@@ -7481,7 +7481,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>54</v>
@@ -7774,7 +7774,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -7809,7 +7809,7 @@
         <v>Iceland</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -7844,13 +7844,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="str">
         <f aca="false">C24</f>
@@ -7900,7 +7900,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -7946,20 +7946,20 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
         <v>Poland</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -8024,7 +8024,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -8061,13 +8061,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -8081,7 +8081,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -8101,7 +8101,7 @@
         <v>Denmark</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -8135,7 +8135,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>38</v>
@@ -8201,7 +8201,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -8220,7 +8220,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -8238,13 +8238,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8292,7 +8292,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -8313,7 +8313,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8340,10 +8340,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>51</v>
@@ -8394,7 +8394,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>54</v>
@@ -8687,7 +8687,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -8722,7 +8722,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -8739,7 +8739,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -8813,7 +8813,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -8859,20 +8859,20 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
         <v>Senegal</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -8907,7 +8907,7 @@
         <v>Spain</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8937,7 +8937,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>34</v>
@@ -8947,7 +8947,7 @@
         <v>Russia</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -8974,13 +8974,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -8994,7 +8994,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -9014,7 +9014,7 @@
         <v>Denmark</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -9048,7 +9048,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -9067,7 +9067,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9114,7 +9114,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -9151,13 +9151,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9205,7 +9205,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -9226,7 +9226,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9253,10 +9253,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>50</v>
@@ -9307,7 +9307,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>53</v>
@@ -9600,7 +9600,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -9626,7 +9626,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -9670,13 +9670,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="str">
         <f aca="false">C24</f>
@@ -9726,7 +9726,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -9831,7 +9831,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6" t="str">
         <f aca="false">C9</f>
@@ -9850,7 +9850,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>34</v>
@@ -9887,13 +9887,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -9927,7 +9927,7 @@
         <v>Australia</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -9961,7 +9961,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>38</v>
@@ -10046,13 +10046,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">C35</f>
@@ -10064,13 +10064,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10118,7 +10118,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -10161,15 +10161,15 @@
         <v>17</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>51</v>
@@ -10220,7 +10220,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>53</v>
@@ -10513,7 +10513,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -10530,7 +10530,7 @@
         <v>France</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -10548,7 +10548,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -10565,7 +10565,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -10605,7 +10605,7 @@
         <v>Brazil</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
@@ -10639,7 +10639,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -10685,20 +10685,20 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
         <v>Columbia</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -10733,7 +10733,7 @@
         <v>Argentina</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10763,7 +10763,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -10773,7 +10773,7 @@
         <v>Uruguay</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -10800,13 +10800,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -10820,7 +10820,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -10840,7 +10840,7 @@
         <v>Peru</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -10874,7 +10874,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -10893,7 +10893,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10940,7 +10940,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -10959,13 +10959,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">C35</f>
@@ -10977,10 +10977,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
@@ -11031,7 +11031,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>39</v>
@@ -11052,7 +11052,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11079,10 +11079,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>51</v>
@@ -11133,7 +11133,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>54</v>
@@ -11426,7 +11426,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -11443,7 +11443,7 @@
         <v>France</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -11461,7 +11461,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -11478,7 +11478,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -11496,7 +11496,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -11552,7 +11552,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -11598,20 +11598,20 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
         <v>Poland</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -11676,7 +11676,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -11686,7 +11686,7 @@
         <v>Russia</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -11713,13 +11713,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -11733,7 +11733,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -11753,7 +11753,7 @@
         <v>Denmark</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -11787,7 +11787,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -11806,7 +11806,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11853,7 +11853,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -11872,13 +11872,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">C35</f>
@@ -11890,10 +11890,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
@@ -11944,7 +11944,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>39</v>
@@ -11965,7 +11965,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11992,10 +11992,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>50</v>
@@ -12046,7 +12046,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>30</v>
@@ -12339,7 +12339,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -12374,7 +12374,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -12391,7 +12391,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -12409,7 +12409,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -12465,7 +12465,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -12511,13 +12511,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
@@ -12559,7 +12559,7 @@
         <v>Spain</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12589,7 +12589,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -12599,7 +12599,7 @@
         <v>Russia</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -12626,13 +12626,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -12646,7 +12646,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -12666,7 +12666,7 @@
         <v>Peru</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -12700,7 +12700,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -12719,7 +12719,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12785,13 +12785,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">C35</f>
@@ -12803,13 +12803,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12857,7 +12857,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>39</v>
@@ -12889,7 +12889,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12905,10 +12905,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>51</v>
@@ -12959,7 +12959,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>54</v>
@@ -13252,7 +13252,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -13269,7 +13269,7 @@
         <v>France</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -13278,7 +13278,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -13287,7 +13287,7 @@
         <v>Croatia</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -13304,7 +13304,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -13322,7 +13322,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -13378,7 +13378,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>26</v>
@@ -13424,20 +13424,20 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">C40</f>
         <v>Poland</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -13502,7 +13502,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -13512,7 +13512,7 @@
         <v>Uruguay</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -13539,13 +13539,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">C19</f>
@@ -13559,7 +13559,7 @@
         <v>Argentina</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -13579,7 +13579,7 @@
         <v>Denmark</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -13613,7 +13613,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
@@ -13632,7 +13632,7 @@
         <v>Germany</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13679,7 +13679,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">C39</f>
@@ -13698,7 +13698,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -13716,13 +13716,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13770,7 +13770,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>48</v>
@@ -13791,7 +13791,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13818,10 +13818,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>51</v>
@@ -13872,7 +13872,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>54</v>
